--- a/data/tehilim-data/21.xlsx
+++ b/data/tehilim-data/21.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="186">
   <si>
     <t>original</t>
   </si>
@@ -67,10 +67,16 @@
     <t>и в спасении Твоем</t>
   </si>
   <si>
-    <t>מַה-יָּגֵל מְאֹד</t>
-  </si>
-  <si>
-    <t>как он ликует сильно</t>
+    <t xml:space="preserve">מַה-יָּגֵל </t>
+  </si>
+  <si>
+    <t>как он ликует</t>
+  </si>
+  <si>
+    <t>מְאֹד</t>
+  </si>
+  <si>
+    <t>сильно</t>
   </si>
   <si>
     <t>ג</t>
@@ -106,10 +112,16 @@
     <t>уст его</t>
   </si>
   <si>
-    <t>בַּל-מָנַעְתָּ סֶּלָה</t>
-  </si>
-  <si>
-    <t>не отверг (Села)</t>
+    <t>בַּל-מָנַעְתָּ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не отверг </t>
+  </si>
+  <si>
+    <t>סֶּלָה</t>
+  </si>
+  <si>
+    <t>(Села)</t>
   </si>
   <si>
     <t>ד</t>
@@ -166,10 +178,16 @@
     <t>Жизни</t>
   </si>
   <si>
-    <t>שָׁאַל מִמְּךָּ</t>
-  </si>
-  <si>
-    <t>просил у Тебя</t>
+    <t xml:space="preserve">שָׁאַל </t>
+  </si>
+  <si>
+    <t xml:space="preserve">просил </t>
+  </si>
+  <si>
+    <t>מִמְּךָּ</t>
+  </si>
+  <si>
+    <t>у Тебя</t>
   </si>
   <si>
     <t>אֹרֶךְ</t>
@@ -184,10 +202,16 @@
     <t>дней</t>
   </si>
   <si>
-    <t>עוֹלָם וָעֶד</t>
-  </si>
-  <si>
-    <t>на века и веки</t>
+    <t xml:space="preserve">עוֹלָם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">на века </t>
+  </si>
+  <si>
+    <t>וָעֶד</t>
+  </si>
+  <si>
+    <t>и века</t>
   </si>
   <si>
     <t>ו</t>
@@ -223,10 +247,16 @@
     <t>и великолепие</t>
   </si>
   <si>
-    <t>תָּשְׁוֶה עָלָיו</t>
-  </si>
-  <si>
-    <t>Ты возложил на него</t>
+    <t xml:space="preserve">תָּשְׁוֶה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты возложил </t>
+  </si>
+  <si>
+    <t>עָלָיו</t>
+  </si>
+  <si>
+    <t>на него</t>
   </si>
   <si>
     <t>ז</t>
@@ -349,10 +379,16 @@
     <t>Обратишь их</t>
   </si>
   <si>
-    <t>כְּתַנּוּר אֵשׁ</t>
-  </si>
-  <si>
-    <t>словно в печь</t>
+    <t xml:space="preserve">כְּתַנּוּר </t>
+  </si>
+  <si>
+    <t>словно</t>
+  </si>
+  <si>
+    <t>אֵשׁ</t>
+  </si>
+  <si>
+    <t>в печь</t>
   </si>
   <si>
     <t>לְעֵת פָּנֶיךָ</t>
@@ -382,9 +418,6 @@
     <t>и пожрет их</t>
   </si>
   <si>
-    <t>אֵשׁ</t>
-  </si>
-  <si>
     <t>пламя</t>
   </si>
   <si>
@@ -415,19 +448,31 @@
     <t>и семя их</t>
   </si>
   <si>
-    <t>מִבְּנֵי אָדָם</t>
-  </si>
-  <si>
-    <t>из среды людей</t>
+    <t xml:space="preserve">מִבְּנֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">из среды </t>
+  </si>
+  <si>
+    <t>אָדָם</t>
+  </si>
+  <si>
+    <t>людей</t>
   </si>
   <si>
     <t>יב</t>
   </si>
   <si>
-    <t>כִּי-נָטוּ עָלֶיךָ</t>
-  </si>
-  <si>
-    <t>Ибо склоняются к тебе</t>
+    <t xml:space="preserve">כִּי-נָטוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ибо склоняются </t>
+  </si>
+  <si>
+    <t>עָלֶיךָ</t>
+  </si>
+  <si>
+    <t>к тебе</t>
   </si>
   <si>
     <t>רָעָה</t>
@@ -436,10 +481,16 @@
     <t>на зло</t>
   </si>
   <si>
-    <t>חָשְׁבוּ מְזִמָּה</t>
-  </si>
-  <si>
-    <t>обдумывают умыслы</t>
+    <t>חָשְׁבוּ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обдумывают </t>
+  </si>
+  <si>
+    <t>מְזִמָּה</t>
+  </si>
+  <si>
+    <t>умыслы</t>
   </si>
   <si>
     <t>בַל-יוּכָלוּ</t>
@@ -451,10 +502,16 @@
     <t>יג</t>
   </si>
   <si>
-    <t>כִּי-תְשִׁיתֵמוֹ</t>
-  </si>
-  <si>
-    <t>Ибо положишь их</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t>Ибо</t>
+  </si>
+  <si>
+    <t>תְשִׁיתֵמוֹ</t>
+  </si>
+  <si>
+    <t>положишь их</t>
   </si>
   <si>
     <t>שֵׁכֶם</t>
@@ -496,10 +553,16 @@
     <t>в силе твоей</t>
   </si>
   <si>
-    <t>נָשִׁירָה וּנְזַמְּרָה</t>
-  </si>
-  <si>
-    <t>И будем петь и воспевать</t>
+    <t>נָשִׁירָה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И будем петь </t>
+  </si>
+  <si>
+    <t>וּנְזַמְּרָה</t>
+  </si>
+  <si>
+    <t>и воспевать</t>
   </si>
   <si>
     <t>גְּבוּרָתֶךָ</t>
@@ -512,7 +575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -527,6 +590,14 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -559,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -576,19 +647,28 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -910,17 +990,17 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
-        <v>3.0</v>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3.0</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -973,26 +1053,26 @@
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5">
-        <v>4.0</v>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4.0</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -1045,62 +1125,62 @@
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="5">
-        <v>5.0</v>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5.0</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>55</v>
+      <c r="A32" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -1108,44 +1188,44 @@
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="5">
-        <v>6.0</v>
+      <c r="B34" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6.0</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -1171,116 +1251,116 @@
       <c r="A41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="5">
-        <v>7.0</v>
+      <c r="B41" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.0</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="5">
-        <v>8.0</v>
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="5" t="s">
         <v>94</v>
+      </c>
+      <c r="B53" s="5">
+        <v>8.0</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -1297,194 +1377,194 @@
       <c r="A55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="5">
-        <v>9.0</v>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B60" s="5">
+        <v>9.0</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="5">
-        <v>10.0</v>
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="B67" s="5">
+        <v>10.0</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>124</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="5">
-        <v>11.0</v>
+        <v>126</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>135</v>
@@ -1496,7 +1576,7 @@
         <v>136</v>
       </c>
       <c r="B77" s="5">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -1540,26 +1620,26 @@
       <c r="A82" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="5">
-        <v>13.0</v>
+      <c r="B82" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>147</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="5" t="s">
         <v>149</v>
+      </c>
+      <c r="B84" s="5">
+        <v>12.0</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -1573,10 +1653,10 @@
       <c r="C85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C86" s="2"/>
@@ -1591,133 +1671,232 @@
       <c r="C87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B88" s="6">
-        <v>14.0</v>
+      <c r="B88" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>158</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B91" s="5">
+        <v>13.0</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>164</v>
+      <c r="A93" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="C93" s="2"/>
     </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
     <row r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
+      <c r="A97" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="8"/>
+      <c r="A98" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="C98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="8"/>
+      <c r="A99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="8"/>
+      <c r="A100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="8"/>
+      <c r="A101" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="8"/>
+      <c r="A102" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="7"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="7"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="8"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="7"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="8"/>
+      <c r="A104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="10"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="10"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="10"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="11"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="10"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="10"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="11"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="10"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="11"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="10"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
